--- a/output.xlsx
+++ b/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>124</t>
   </si>
@@ -21,6 +21,27 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -85,6 +106,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
